--- a/output/RPS_25530044000154.xlsx
+++ b/output/RPS_25530044000154.xlsx
@@ -944,10 +944,10 @@
         <v>44165</v>
       </c>
       <c r="B51">
-        <v>0.3592668999999999</v>
+        <v>0.3613360000000001</v>
       </c>
       <c r="C51">
-        <v>-0.006461483382621647</v>
+        <v>-0.004949101565089542</v>
       </c>
     </row>
   </sheetData>

--- a/output/RPS_25530044000154.xlsx
+++ b/output/RPS_25530044000154.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>RPS EQUITY HEDGE D30 FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,568 +383,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42674</v>
       </c>
       <c r="B2">
-        <v>0.02050550000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42704</v>
       </c>
       <c r="B3">
-        <v>0.0219313000000001</v>
-      </c>
-      <c r="C3">
         <v>0.001397150725792384</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42735</v>
       </c>
       <c r="B4">
-        <v>0.04239320000000002</v>
-      </c>
-      <c r="C4">
         <v>0.02002277452505852</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42766</v>
       </c>
       <c r="B5">
-        <v>0.06676729999999997</v>
-      </c>
-      <c r="C5">
         <v>0.02338282713279405</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42794</v>
       </c>
       <c r="B6">
-        <v>0.08677500000000005</v>
-      </c>
-      <c r="C6">
         <v>0.01875544929058104</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42825</v>
       </c>
       <c r="B7">
-        <v>0.09299419999999992</v>
-      </c>
-      <c r="C7">
         <v>0.005722619677485996</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42855</v>
       </c>
       <c r="B8">
-        <v>0.09770440000000002</v>
-      </c>
-      <c r="C8">
         <v>0.004309446472817724</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42886</v>
       </c>
       <c r="B9">
-        <v>0.09007089999999995</v>
-      </c>
-      <c r="C9">
         <v>-0.006954057941281899</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42916</v>
       </c>
       <c r="B10">
-        <v>0.09677840000000004</v>
-      </c>
-      <c r="C10">
         <v>0.006153269479994394</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42947</v>
       </c>
       <c r="B11">
-        <v>0.1096826</v>
-      </c>
-      <c r="C11">
         <v>0.01176554899330617</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42978</v>
       </c>
       <c r="B12">
-        <v>0.1232184999999999</v>
-      </c>
-      <c r="C12">
         <v>0.01219799247100029</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43008</v>
       </c>
       <c r="B13">
-        <v>0.1475659</v>
-      </c>
-      <c r="C13">
         <v>0.02167645921074146</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43039</v>
       </c>
       <c r="B14">
-        <v>0.1624931000000001</v>
-      </c>
-      <c r="C14">
         <v>0.01300770613696356</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43069</v>
       </c>
       <c r="B15">
-        <v>0.1530174</v>
-      </c>
-      <c r="C15">
         <v>-0.008151188166192203</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43100</v>
       </c>
       <c r="B16">
-        <v>0.1628115999999999</v>
-      </c>
-      <c r="C16">
         <v>0.008494407803386173</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43131</v>
       </c>
       <c r="B17">
-        <v>0.1836511000000001</v>
-      </c>
-      <c r="C17">
         <v>0.01792164784045847</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43159</v>
       </c>
       <c r="B18">
-        <v>0.199141</v>
-      </c>
-      <c r="C18">
         <v>0.01308654214066962</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43190</v>
       </c>
       <c r="B19">
-        <v>0.2078485999999999</v>
-      </c>
-      <c r="C19">
         <v>0.007261531379545882</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43220</v>
       </c>
       <c r="B20">
-        <v>0.2243174999999999</v>
-      </c>
-      <c r="C20">
         <v>0.01363490424213754</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43251</v>
       </c>
       <c r="B21">
-        <v>0.2313329</v>
-      </c>
-      <c r="C21">
         <v>0.005730049599062426</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43281</v>
       </c>
       <c r="B22">
-        <v>0.2420103</v>
-      </c>
-      <c r="C22">
         <v>0.008671416153990474</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43312</v>
       </c>
       <c r="B23">
-        <v>0.2389775000000001</v>
-      </c>
-      <c r="C23">
         <v>-0.002441847704483524</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43343</v>
       </c>
       <c r="B24">
-        <v>0.2384105999999999</v>
-      </c>
-      <c r="C24">
         <v>-0.0004575547174989758</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43373</v>
       </c>
       <c r="B25">
-        <v>0.2449129999999999</v>
-      </c>
-      <c r="C25">
         <v>0.005250601052671833</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43404</v>
       </c>
       <c r="B26">
-        <v>0.2686108</v>
-      </c>
-      <c r="C26">
         <v>0.01903570771612162</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43434</v>
       </c>
       <c r="B27">
-        <v>0.2765553000000001</v>
-      </c>
-      <c r="C27">
         <v>0.006262361947415362</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43465</v>
       </c>
       <c r="B28">
-        <v>0.2834928999999999</v>
-      </c>
-      <c r="C28">
         <v>0.005434625511327118</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43496</v>
       </c>
       <c r="B29">
-        <v>0.3040575000000001</v>
-      </c>
-      <c r="C29">
         <v>0.01602237145215235</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43524</v>
       </c>
       <c r="B30">
-        <v>0.2985047999999999</v>
-      </c>
-      <c r="C30">
         <v>-0.004258017763787425</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43555</v>
       </c>
       <c r="B31">
-        <v>0.2858670000000001</v>
-      </c>
-      <c r="C31">
         <v>-0.009732578578069084</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43585</v>
       </c>
       <c r="B32">
-        <v>0.2898141000000001</v>
-      </c>
-      <c r="C32">
         <v>0.003069602066154475</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43616</v>
       </c>
       <c r="B33">
-        <v>0.2953484</v>
-      </c>
-      <c r="C33">
         <v>0.00429077337579109</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43646</v>
       </c>
       <c r="B34">
-        <v>0.3152242999999999</v>
-      </c>
-      <c r="C34">
         <v>0.01534405724359567</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43677</v>
       </c>
       <c r="B35">
-        <v>0.3345746000000001</v>
-      </c>
-      <c r="C35">
         <v>0.01471254750995721</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43708</v>
       </c>
       <c r="B36">
-        <v>0.3142805</v>
-      </c>
-      <c r="C36">
         <v>-0.01520641858461869</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43738</v>
       </c>
       <c r="B37">
-        <v>0.3050923999999999</v>
-      </c>
-      <c r="C37">
         <v>-0.006990973388100952</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43769</v>
       </c>
       <c r="B38">
-        <v>0.3260181</v>
-      </c>
-      <c r="C38">
         <v>0.01603388388439009</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43799</v>
       </c>
       <c r="B39">
-        <v>0.3316026999999999</v>
-      </c>
-      <c r="C39">
         <v>0.004211556388257431</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43830</v>
       </c>
       <c r="B40">
-        <v>0.3809598999999999</v>
-      </c>
-      <c r="C40">
         <v>0.03706601075531002</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43861</v>
       </c>
       <c r="B41">
-        <v>0.3988843</v>
-      </c>
-      <c r="C41">
         <v>0.01297966725898414</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43890</v>
       </c>
       <c r="B42">
-        <v>0.3577832999999999</v>
-      </c>
-      <c r="C42">
         <v>-0.02938127191791351</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43921</v>
       </c>
       <c r="B43">
-        <v>0.3086316</v>
-      </c>
-      <c r="C43">
         <v>-0.0361999591540122</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43951</v>
       </c>
       <c r="B44">
-        <v>0.3276721</v>
-      </c>
-      <c r="C44">
         <v>0.01454993139398431</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43982</v>
       </c>
       <c r="B45">
-        <v>0.3189434</v>
-      </c>
-      <c r="C45">
         <v>-0.00657443957736259</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>44012</v>
       </c>
       <c r="B46">
-        <v>0.3540859999999999</v>
-      </c>
-      <c r="C46">
         <v>0.02664450953695208</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>44043</v>
       </c>
       <c r="B47">
-        <v>0.3823422000000001</v>
-      </c>
-      <c r="C47">
         <v>0.02086735997565903</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>44074</v>
       </c>
       <c r="B48">
-        <v>0.3973865000000001</v>
-      </c>
-      <c r="C48">
         <v>0.01088319520304015</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>44104</v>
       </c>
       <c r="B49">
-        <v>0.3554575</v>
-      </c>
-      <c r="C49">
         <v>-0.03000529917814443</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>44135</v>
       </c>
       <c r="B50">
-        <v>0.3681068999999999</v>
-      </c>
-      <c r="C50">
         <v>0.009332199644769279</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>44165</v>
       </c>
       <c r="B51">
-        <v>0.3613360000000001</v>
-      </c>
-      <c r="C51">
-        <v>-0.004949101565089542</v>
+        <v>-0.01217850739587667</v>
       </c>
     </row>
   </sheetData>
